--- a/data/gitlink/test_gitlink_demo.xlsx
+++ b/data/gitlink/test_gitlink_demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GitLink-登录模块excel" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>severity</t>
   </si>
   <si>
     <t>url</t>
@@ -82,6 +85,9 @@
     </r>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>/api/accounts/login.json</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
       </rPr>
       <t>用户名正确，密码错误，登录失败</t>
     </r>
+  </si>
+  <si>
+    <t>trivial</t>
   </si>
   <si>
     <t>{ 'login': 'chytest10','password': 'password111','autologin': 1 }</t>
@@ -1199,31 +1208,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08571428571429" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.08571428571429" style="1"/>
     <col min="2" max="2" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="10" customWidth="1"/>
-    <col min="5" max="5" width="37.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.08571428571429" style="1"/>
+    <col min="3" max="4" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1428571428571" style="10" customWidth="1"/>
+    <col min="6" max="6" width="37.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.08571428571429" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:14">
+    <row r="1" ht="18.75" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1242,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1254,122 +1263,134 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="63.75" spans="1:14">
+    <row r="2" ht="63.75" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="63.75" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
+      <c r="J3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="63.75" spans="1:14">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
+    <row r="4" ht="63.75" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="63.75" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1386,24 +1407,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="15.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="25.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="20.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="15.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="17.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="15.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="25.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="20.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37.5" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="37.5" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1434,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1434,129 +1455,141 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="153" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="153" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="153" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="153" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="153" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="153" spans="1:13">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>44</v>
+      <c r="N4" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/gitlink/test_gitlink_demo.xlsx
+++ b/data/gitlink/test_gitlink_demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GitLink-登录模块excel" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -62,7 +62,7 @@
     <t>run</t>
   </si>
   <si>
-    <t>case_login_demo_01</t>
+    <t>case_login_excel_01</t>
   </si>
   <si>
     <r>
@@ -109,7 +109,7 @@
     <t>{'eq': {'http_code': 200, '$.user_id': 84954}, 'in': {'$.login': 'auotest'}, 'gt': {'$.user_id': 84955}, 'lt': {'$.user_id': 84953}, 'not': {'$.user_id': 85390}}</t>
   </si>
   <si>
-    <t>case_login_demo_02</t>
+    <t>case_login_excel_02</t>
   </si>
   <si>
     <r>
@@ -134,13 +134,10 @@
     <t xml:space="preserve"> {'eq': {'http_code': 200, '$.status': -2}}</t>
   </si>
   <si>
-    <t>case_login_demo_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     </t>
-  </si>
-  <si>
-    <t>case_new_project_demo_01</t>
+    <t>case_login_excel_03</t>
+  </si>
+  <si>
+    <t>case_new_project_excel_01</t>
   </si>
   <si>
     <t>新建项目</t>
@@ -164,16 +161,7 @@
     <t>{'eq': {'http_code': 200, '$.login': '${login}'}}</t>
   </si>
   <si>
-    <t>case_new_project_demo_02</t>
-  </si>
-  <si>
-    <t>正确输入各项必填参数，新建项目成功（不校验数据库，单独传cookies）</t>
-  </si>
-  <si>
-    <t>${login_cookie}</t>
-  </si>
-  <si>
-    <t>case_new_project_demo_03</t>
+    <t>case_new_project_excel_02</t>
   </si>
   <si>
     <t>正确输入各项必填参数，新建项目成功（校验数据库）</t>
@@ -185,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -235,34 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -274,14 +234,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,6 +280,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -373,7 +340,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,49 +382,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,121 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +587,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +620,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,148 +691,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,7 +853,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -883,52 +871,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1211,7 +1199,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08571428571429" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -1359,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:13">
+    <row r="4" ht="63.75" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1390,7 +1378,10 @@
       </c>
       <c r="K4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1407,13 +1398,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15.1428571428571" customWidth="1"/>
@@ -1473,22 +1464,22 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="153" spans="1:15">
       <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -1498,34 +1489,34 @@
         <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="O2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="153" spans="1:15">
+    <row r="3" ht="153" spans="1:15">
       <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -1533,63 +1524,24 @@
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
+      <c r="N3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="153" spans="1:14">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
